--- a/backlogs/Product Backlog.xlsx
+++ b/backlogs/Product Backlog.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanvir\Documents\Git\CSE327\Image-Gallery-for-Android\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanvir\Documents\Git\CSE327\Image-Gallery-for-Android\backlogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BF413A-B195-4EF2-A9D9-335EB168E7AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08C0E48-7F21-4480-B26C-886032CF4174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD910ECD-3CD8-42B8-8507-8CF68E030CCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -114,19 +114,26 @@
     <t>User</t>
   </si>
   <si>
-    <t>I don’t have to carry around photo albums with me if I want see the photos I have taken</t>
-  </si>
-  <si>
     <t>I can find the photo I am looking for very easily</t>
+  </si>
+  <si>
+    <t>I can view photos whenever I want to see them without printing them and having to keep the photo albums with me</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -168,22 +175,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -196,16 +245,22 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -218,16 +273,22 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -240,16 +301,22 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -262,16 +329,22 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -284,16 +357,22 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -306,16 +385,22 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -328,16 +413,7 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -353,16 +429,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7AA7D296-AB5F-4561-933E-1E99D7217E47}" name="Table1" displayName="Table1" ref="B2:H12" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7AA7D296-AB5F-4561-933E-1E99D7217E47}" name="Table1" displayName="Table1" ref="B2:H12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="B2:H12" xr:uid="{7C6ACD28-AA9B-4AE5-916E-A4393A8EA809}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DF66EEE2-BE84-4FDD-B0A5-3591A8432DF4}" name="ID" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{2D03C6F3-6FF0-4515-8311-41CDC5187AC3}" name="As a…" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{FB57C92F-CF95-4FE6-81B6-05CF0EA728BC}" name="I want to be able to…" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{1732398B-CEA9-405D-98FB-C7A8775776FE}" name="So that…" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{83B3FE2B-6AF9-42FB-99D9-1819E35CEBFD}" name="Priority" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{E1A64646-3DF2-460A-90C1-E306598A1080}" name="Sprint" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{94B8F7E1-E22E-4FF0-B19A-BFBAAA1F5A28}" name="Status" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DF66EEE2-BE84-4FDD-B0A5-3591A8432DF4}" name="ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{2D03C6F3-6FF0-4515-8311-41CDC5187AC3}" name="As a…" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{FB57C92F-CF95-4FE6-81B6-05CF0EA728BC}" name="I want to be able to…" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{1732398B-CEA9-405D-98FB-C7A8775776FE}" name="So that…" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{83B3FE2B-6AF9-42FB-99D9-1819E35CEBFD}" name="Priority" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{E1A64646-3DF2-460A-90C1-E306598A1080}" name="Sprint" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{94B8F7E1-E22E-4FF0-B19A-BFBAAA1F5A28}" name="Status" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -668,21 +744,23 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,7 +783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -716,7 +794,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -728,7 +806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -739,7 +817,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
@@ -751,7 +829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -774,7 +852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -797,7 +875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -820,7 +898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -843,7 +921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -866,7 +944,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -889,7 +967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -912,7 +990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -937,8 +1015,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/backlogs/Product Backlog.xlsx
+++ b/backlogs/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanvir\Documents\Git\CSE327\Image-Gallery-for-Android\backlogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08C0E48-7F21-4480-B26C-886032CF4174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC81920-D496-4A61-B7F4-F4731D4347FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD910ECD-3CD8-42B8-8507-8CF68E030CCA}"/>
   </bookViews>
@@ -117,7 +117,7 @@
     <t>I can find the photo I am looking for very easily</t>
   </si>
   <si>
-    <t>I can view photos whenever I want to see them without printing them and having to keep the photo albums with me</t>
+    <t>I can view photos whenever I want to see them without needing to print them and to keep the photo albums with me</t>
   </si>
 </sst>
 </file>
@@ -203,35 +203,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -415,6 +386,35 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -429,16 +429,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7AA7D296-AB5F-4561-933E-1E99D7217E47}" name="Table1" displayName="Table1" ref="B2:H12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7AA7D296-AB5F-4561-933E-1E99D7217E47}" name="Table1" displayName="Table1" ref="B2:H12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B2:H12" xr:uid="{7C6ACD28-AA9B-4AE5-916E-A4393A8EA809}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DF66EEE2-BE84-4FDD-B0A5-3591A8432DF4}" name="ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{2D03C6F3-6FF0-4515-8311-41CDC5187AC3}" name="As a…" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{FB57C92F-CF95-4FE6-81B6-05CF0EA728BC}" name="I want to be able to…" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{1732398B-CEA9-405D-98FB-C7A8775776FE}" name="So that…" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{83B3FE2B-6AF9-42FB-99D9-1819E35CEBFD}" name="Priority" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{E1A64646-3DF2-460A-90C1-E306598A1080}" name="Sprint" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{94B8F7E1-E22E-4FF0-B19A-BFBAAA1F5A28}" name="Status" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{DF66EEE2-BE84-4FDD-B0A5-3591A8432DF4}" name="ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{2D03C6F3-6FF0-4515-8311-41CDC5187AC3}" name="As a…" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{FB57C92F-CF95-4FE6-81B6-05CF0EA728BC}" name="I want to be able to…" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{1732398B-CEA9-405D-98FB-C7A8775776FE}" name="So that…" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{83B3FE2B-6AF9-42FB-99D9-1819E35CEBFD}" name="Priority" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{E1A64646-3DF2-460A-90C1-E306598A1080}" name="Sprint" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{94B8F7E1-E22E-4FF0-B19A-BFBAAA1F5A28}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/backlogs/Product Backlog.xlsx
+++ b/backlogs/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanvir\Documents\Git\CSE327\Image-Gallery-for-Android\backlogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC81920-D496-4A61-B7F4-F4731D4347FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60472230-114E-4E29-9132-052716A9F45E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD910ECD-3CD8-42B8-8507-8CF68E030CCA}"/>
   </bookViews>
@@ -117,7 +117,7 @@
     <t>I can find the photo I am looking for very easily</t>
   </si>
   <si>
-    <t>I can view photos whenever I want to see them without needing to print them and to keep the photo albums with me</t>
+    <t>I can view images whenever I want to see them without needing to print the images and to keep the photo albums with me</t>
   </si>
 </sst>
 </file>
